--- a/datadases/ZAPISI.xlsx
+++ b/datadases/ZAPISI.xlsx
@@ -45,7 +45,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,14 +91,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,6 +140,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,10 +161,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,2382 +183,2336 @@
   </sheetPr>
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E113" activeCellId="31" sqref="E3:E4 E10 E12 E14 E17 E24:E25 E28 E31 E33 E41 E44 E46:E47 E49:E50 E52:E53 E56 E58:E60 E65:E66 E68:E69 E73:E74 E76 E78 E80:E82 E84 E87 E89 E91:E92 E94:E95 E99:E100 E102 E105:E106 E108 E113:E114 E116:E117 E120 E122:E123 E125 E136:E137 E139 E141 E144:E146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I123" activeCellId="0" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="34.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="34.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>7165044</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>111261</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D2" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>7165044</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>111218</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>7165044</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>111165</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>4770421</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>111116</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="D5" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>4770421</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>111263</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="D6" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>4770421</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>111145</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="D7" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>3850728</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>111181</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E8" s="4" t="n">
+      <c r="D8" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>3850728</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>111135</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>3850728</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>111239</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>2523475</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>111240</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E11" s="4" t="n">
+      <c r="D11" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>2523475</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>111253</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="D12" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>2523475</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>111143</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E13" s="4" t="n">
+      <c r="D13" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>2523475</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>111172</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="D14" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>2848504</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>111121</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E15" s="4" t="n">
+      <c r="D15" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>2848504</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="4" t="n">
         <v>111281</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="D16" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>2848504</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>111128</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="D17" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>2848504</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>111122</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="D18" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>6426862</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>111249</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="D19" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="3" t="n">
         <v>6426862</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>111185</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="D20" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="3" t="n">
         <v>6426862</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>111160</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="D21" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>5049405</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>111301</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="D22" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>5049405</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>111223</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E23" s="4" t="n">
+      <c r="D23" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>5049405</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>111126</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="D24" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>5049405</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>111245</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="D25" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="3" t="n">
         <v>1296518</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>111252</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E26" s="4" t="n">
+      <c r="D26" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="3" t="n">
         <v>1296518</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="4" t="n">
         <v>111255</v>
       </c>
-      <c r="D27" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E27" s="4" t="n">
+      <c r="D27" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="3" t="n">
         <v>1296518</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="4" t="n">
         <v>111264</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E28" s="4"/>
+      <c r="D28" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="3" t="n">
         <v>1296518</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>111150</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E29" s="4" t="n">
+      <c r="D29" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>4776502</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" s="4" t="n">
         <v>111189</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E30" s="4" t="n">
+      <c r="D30" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="3" t="n">
         <v>4776502</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" s="4" t="n">
         <v>111166</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="D31" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="3" t="n">
         <v>4776502</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" s="4" t="n">
         <v>111193</v>
       </c>
-      <c r="D32" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E32" s="4" t="n">
+      <c r="D32" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="3" t="n">
         <v>4776502</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="4" t="n">
         <v>111265</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="D33" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="3" t="n">
         <v>2905732</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="4" t="n">
         <v>111289</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E34" s="4" t="n">
+      <c r="D34" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>2905732</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="4" t="n">
         <v>111149</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E35" s="4" t="n">
+      <c r="D35" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="3" t="n">
         <v>2905732</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="4" t="n">
         <v>111206</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E36" s="4" t="n">
+      <c r="D36" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="3" t="n">
         <v>4750521</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>111247</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E37" s="4" t="n">
+      <c r="D37" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E37" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="3" t="n">
         <v>4750521</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="4" t="n">
         <v>111260</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>44918</v>
-      </c>
-      <c r="J38" s="5"/>
+      <c r="D38" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>44918</v>
+      </c>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="3" t="n">
         <v>4750521</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="4" t="n">
         <v>111300</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>44918</v>
-      </c>
-      <c r="J39" s="5"/>
+      <c r="D39" s="5" t="n">
+        <v>44805</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>44918</v>
+      </c>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="3" t="n">
         <v>4778959</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="4" t="n">
         <v>111171</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E40" s="4" t="n">
-        <v>44918</v>
-      </c>
-      <c r="J40" s="5"/>
+      <c r="E40" s="5" t="n">
+        <v>44918</v>
+      </c>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="3" t="n">
         <v>4778959</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" s="4" t="n">
         <v>111224</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="J41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="3" t="n">
         <v>4778959</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" s="4" t="n">
         <v>111219</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="D42" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E42" s="4" t="n">
-        <v>44918</v>
-      </c>
-      <c r="J42" s="5"/>
+      <c r="E42" s="5" t="n">
+        <v>44918</v>
+      </c>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="3" t="n">
         <v>4119812</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" s="4" t="n">
         <v>111233</v>
       </c>
-      <c r="D43" s="4" t="n">
+      <c r="D43" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v>44918</v>
-      </c>
-      <c r="J43" s="5"/>
+      <c r="E43" s="5" t="n">
+        <v>44918</v>
+      </c>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
         <v>4119812</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="4" t="n">
         <v>111279</v>
       </c>
-      <c r="D44" s="4" t="n">
+      <c r="D44" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="J44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="3" t="n">
         <v>6286661</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="4" t="n">
         <v>111220</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>6286661</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" s="4" t="n">
         <v>111184</v>
       </c>
-      <c r="D46" s="4" t="n">
+      <c r="D46" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="3" t="n">
         <v>6286661</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" s="4" t="n">
         <v>111229</v>
       </c>
-      <c r="D47" s="4" t="n">
+      <c r="D47" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="3" t="n">
         <v>5049825</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="4" t="n">
         <v>111306</v>
       </c>
-      <c r="D48" s="4" t="n">
+      <c r="D48" s="5" t="n">
         <v>44810</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="3" t="n">
         <v>5049825</v>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="C49" s="4" t="n">
         <v>111179</v>
       </c>
-      <c r="D49" s="4" t="n">
+      <c r="D49" s="5" t="n">
         <v>44810</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="3" t="n">
         <v>5049825</v>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="C50" s="4" t="n">
         <v>111140</v>
       </c>
-      <c r="D50" s="4" t="n">
+      <c r="D50" s="5" t="n">
         <v>44810</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="3" t="n">
         <v>7737642</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="4" t="n">
         <v>111159</v>
       </c>
-      <c r="D51" s="4" t="n">
+      <c r="D51" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="3" t="n">
         <v>7737642</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="4" t="n">
         <v>111262</v>
       </c>
-      <c r="D52" s="4" t="n">
+      <c r="D52" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="3" t="n">
         <v>7737642</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="4" t="n">
         <v>111192</v>
       </c>
-      <c r="D53" s="4" t="n">
+      <c r="D53" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="3" t="n">
         <v>4713103</v>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C54" s="4" t="n">
         <v>111157</v>
       </c>
-      <c r="D54" s="4" t="n">
+      <c r="D54" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="3" t="n">
         <v>6266436</v>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="C55" s="4" t="n">
         <v>111113</v>
       </c>
-      <c r="D55" s="4" t="n">
+      <c r="D55" s="5" t="n">
         <v>44817</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="3" t="n">
         <v>6266436</v>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="C56" s="4" t="n">
         <v>111310</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="5" t="n">
         <v>44817</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>3820928</v>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="C57" s="4" t="n">
         <v>111142</v>
       </c>
-      <c r="D57" s="4" t="n">
+      <c r="D57" s="5" t="n">
         <v>44818</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="3" t="n">
         <v>3820928</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C58" s="4" t="n">
         <v>111162</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="5" t="n">
         <v>44818</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="3" t="n">
         <v>3820928</v>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="C59" s="4" t="n">
         <v>111266</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="5" t="n">
         <v>44818</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="3" t="n">
         <v>3820928</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="4" t="n">
         <v>111208</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="5" t="n">
         <v>44818</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="3" t="n">
         <v>7740644</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="4" t="n">
         <v>111188</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="5" t="n">
         <v>44819</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="3" t="n">
         <v>7740644</v>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="C62" s="4" t="n">
         <v>111280</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="5" t="n">
         <v>44820</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="3" t="n">
         <v>7740644</v>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="C63" s="4" t="n">
         <v>111187</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="5" t="n">
         <v>44820</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="3" t="n">
         <v>2408063</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="4" t="n">
         <v>111295</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="5" t="n">
         <v>44822</v>
       </c>
-      <c r="E64" s="4" t="n">
+      <c r="E64" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="3" t="n">
         <v>2408063</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="4" t="n">
         <v>111246</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="5" t="n">
         <v>44822</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="3" t="n">
         <v>2408063</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="4" t="n">
         <v>111175</v>
       </c>
-      <c r="D66" s="4" t="n">
+      <c r="D66" s="5" t="n">
         <v>44822</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="3" t="n">
         <v>1283983</v>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="C67" s="4" t="n">
         <v>111191</v>
       </c>
-      <c r="D67" s="4" t="n">
+      <c r="D67" s="5" t="n">
         <v>44823</v>
       </c>
-      <c r="E67" s="4" t="n">
+      <c r="E67" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>1283983</v>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="C68" s="4" t="n">
         <v>111275</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="5" t="n">
         <v>44823</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="n">
+      <c r="B69" s="3" t="n">
         <v>1283983</v>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="C69" s="4" t="n">
         <v>111257</v>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="5" t="n">
         <v>44823</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="n">
+      <c r="B70" s="3" t="n">
         <v>6020564</v>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="C70" s="4" t="n">
         <v>111228</v>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="5" t="n">
         <v>44824</v>
       </c>
-      <c r="E70" s="4" t="n">
+      <c r="E70" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="n">
+      <c r="B71" s="3" t="n">
         <v>4386826</v>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="C71" s="4" t="n">
         <v>111211</v>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E71" s="4" t="n">
+      <c r="E71" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="n">
+      <c r="B72" s="3" t="n">
         <v>4386826</v>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="C72" s="4" t="n">
         <v>111173</v>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E72" s="4" t="n">
+      <c r="E72" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="n">
+      <c r="B73" s="3" t="n">
         <v>4386826</v>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="C73" s="4" t="n">
         <v>111238</v>
       </c>
-      <c r="D73" s="4" t="n">
+      <c r="D73" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+      <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="n">
+      <c r="B74" s="3" t="n">
         <v>4386826</v>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="C74" s="4" t="n">
         <v>111178</v>
       </c>
-      <c r="D74" s="4" t="n">
+      <c r="D74" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+      <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="n">
+      <c r="B75" s="3" t="n">
         <v>5260755</v>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="C75" s="4" t="n">
         <v>111194</v>
       </c>
-      <c r="D75" s="4" t="n">
+      <c r="D75" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E75" s="4" t="n">
+      <c r="E75" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+      <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="n">
+      <c r="B76" s="3" t="n">
         <v>5260755</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C76" s="4" t="n">
         <v>111214</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E76" s="4"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+      <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="n">
+      <c r="B77" s="3" t="n">
         <v>5260755</v>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="C77" s="4" t="n">
         <v>111276</v>
       </c>
-      <c r="D77" s="4" t="n">
+      <c r="D77" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+      <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B78" s="3" t="n">
         <v>5260755</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="4" t="n">
         <v>111272</v>
       </c>
-      <c r="D78" s="4" t="n">
+      <c r="D78" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+      <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="n">
+      <c r="B79" s="3" t="n">
         <v>8906650</v>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="C79" s="4" t="n">
         <v>111125</v>
       </c>
-      <c r="D79" s="4" t="n">
+      <c r="D79" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E79" s="4" t="n">
+      <c r="E79" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+      <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="n">
+      <c r="B80" s="3" t="n">
         <v>8906650</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="4" t="n">
         <v>111274</v>
       </c>
-      <c r="D80" s="4" t="n">
+      <c r="D80" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E80" s="4"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+      <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="n">
+      <c r="B81" s="3" t="n">
         <v>8906650</v>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="C81" s="4" t="n">
         <v>111164</v>
       </c>
-      <c r="D81" s="4" t="n">
+      <c r="D81" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E81" s="4"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+      <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="n">
+      <c r="B82" s="3" t="n">
         <v>8906650</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="4" t="n">
         <v>111259</v>
       </c>
-      <c r="D82" s="4" t="n">
+      <c r="D82" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E82" s="4"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+      <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="n">
+      <c r="B83" s="3" t="n">
         <v>8906650</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="4" t="n">
         <v>111138</v>
       </c>
-      <c r="D83" s="4" t="n">
+      <c r="D83" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+      <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="n">
+      <c r="B84" s="3" t="n">
         <v>1713009</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="4" t="n">
         <v>111303</v>
       </c>
-      <c r="D84" s="4" t="n">
+      <c r="D84" s="5" t="n">
         <v>44843</v>
       </c>
-      <c r="E84" s="4"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="n">
+      <c r="B85" s="3" t="n">
         <v>6907285</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="4" t="n">
         <v>111291</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="5" t="n">
         <v>44844</v>
       </c>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="n">
+      <c r="B86" s="3" t="n">
         <v>2909206</v>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="C86" s="4" t="n">
         <v>111129</v>
       </c>
-      <c r="D86" s="4" t="n">
+      <c r="D86" s="5" t="n">
         <v>44845</v>
       </c>
-      <c r="E86" s="4" t="n">
+      <c r="E86" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="n">
+      <c r="B87" s="3" t="n">
         <v>2909206</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="4" t="n">
         <v>111284</v>
       </c>
-      <c r="D87" s="4" t="n">
+      <c r="D87" s="5" t="n">
         <v>44845</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="n">
+      <c r="B88" s="3" t="n">
         <v>6041444</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="4" t="n">
         <v>111112</v>
       </c>
-      <c r="D88" s="4" t="n">
+      <c r="D88" s="5" t="n">
         <v>44847</v>
       </c>
-      <c r="E88" s="4" t="n">
+      <c r="E88" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="n">
+      <c r="B89" s="3" t="n">
         <v>6041444</v>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="C89" s="4" t="n">
         <v>111217</v>
       </c>
-      <c r="D89" s="4" t="n">
+      <c r="D89" s="5" t="n">
         <v>44847</v>
       </c>
-      <c r="E89" s="4"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="n">
+      <c r="B90" s="3" t="n">
         <v>6007709</v>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="C90" s="4" t="n">
         <v>111268</v>
       </c>
-      <c r="D90" s="4" t="n">
+      <c r="D90" s="5" t="n">
         <v>44849</v>
       </c>
-      <c r="E90" s="4" t="n">
+      <c r="E90" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="n">
+      <c r="B91" s="3" t="n">
         <v>6007709</v>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="C91" s="4" t="n">
         <v>111131</v>
       </c>
-      <c r="D91" s="4" t="n">
+      <c r="D91" s="5" t="n">
         <v>44849</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B92" s="3" t="n">
         <v>6007709</v>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="C92" s="4" t="n">
         <v>111177</v>
       </c>
-      <c r="D92" s="4" t="n">
+      <c r="D92" s="5" t="n">
         <v>44849</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="n">
+      <c r="B93" s="3" t="n">
         <v>9146436</v>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="C93" s="4" t="n">
         <v>111186</v>
       </c>
-      <c r="D93" s="4" t="n">
+      <c r="D93" s="5" t="n">
         <v>44852</v>
       </c>
-      <c r="E93" s="4" t="n">
+      <c r="E93" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="n">
+      <c r="B94" s="3" t="n">
         <v>9146436</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="4" t="n">
         <v>111111</v>
       </c>
-      <c r="D94" s="4" t="n">
+      <c r="D94" s="5" t="n">
         <v>44852</v>
       </c>
-      <c r="E94" s="4"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="n">
+      <c r="B95" s="3" t="n">
         <v>9146436</v>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="C95" s="4" t="n">
         <v>111307</v>
       </c>
-      <c r="D95" s="4" t="n">
+      <c r="D95" s="5" t="n">
         <v>44852</v>
       </c>
-      <c r="E95" s="4"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="n">
+      <c r="B96" s="3" t="n">
         <v>9097688</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="4" t="n">
         <v>111115</v>
       </c>
-      <c r="D96" s="4" t="n">
+      <c r="D96" s="5" t="n">
         <v>44855</v>
       </c>
-      <c r="E96" s="4" t="n">
+      <c r="E96" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="n">
+      <c r="B97" s="3" t="n">
         <v>5948756</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="4" t="n">
         <v>111156</v>
       </c>
-      <c r="D97" s="4" t="n">
+      <c r="D97" s="5" t="n">
         <v>44856</v>
       </c>
-      <c r="E97" s="4" t="n">
+      <c r="E97" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="n">
+      <c r="B98" s="3" t="n">
         <v>2772766</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="4" t="n">
         <v>111305</v>
       </c>
-      <c r="D98" s="4" t="n">
+      <c r="D98" s="5" t="n">
         <v>44857</v>
       </c>
-      <c r="E98" s="4" t="n">
+      <c r="E98" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="n">
+      <c r="B99" s="3" t="n">
         <v>2772766</v>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="C99" s="4" t="n">
         <v>111200</v>
       </c>
-      <c r="D99" s="4" t="n">
+      <c r="D99" s="5" t="n">
         <v>44857</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="n">
+      <c r="B100" s="3" t="n">
         <v>2772766</v>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="C100" s="4" t="n">
         <v>111183</v>
       </c>
-      <c r="D100" s="4" t="n">
+      <c r="D100" s="5" t="n">
         <v>44857</v>
       </c>
-      <c r="E100" s="4"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="n">
+      <c r="B101" s="3" t="n">
         <v>9328448</v>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="C101" s="4" t="n">
         <v>111308</v>
       </c>
-      <c r="D101" s="4" t="n">
+      <c r="D101" s="5" t="n">
         <v>44860</v>
       </c>
-      <c r="E101" s="4" t="n">
+      <c r="E101" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="n">
+      <c r="B102" s="3" t="n">
         <v>9328448</v>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="C102" s="4" t="n">
         <v>111151</v>
       </c>
-      <c r="D102" s="4" t="n">
+      <c r="D102" s="5" t="n">
         <v>44860</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="n">
+      <c r="B103" s="3" t="n">
         <v>1054843</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="4" t="n">
         <v>111282</v>
       </c>
-      <c r="D103" s="4" t="n">
+      <c r="D103" s="5" t="n">
         <v>44862</v>
       </c>
-      <c r="E103" s="4" t="n">
+      <c r="E103" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="n">
+      <c r="B104" s="3" t="n">
         <v>2443964</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="4" t="n">
         <v>111119</v>
       </c>
-      <c r="D104" s="4" t="n">
+      <c r="D104" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E104" s="4" t="n">
+      <c r="E104" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="n">
+      <c r="B105" s="3" t="n">
         <v>2443964</v>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="C105" s="4" t="n">
         <v>111302</v>
       </c>
-      <c r="D105" s="4" t="n">
+      <c r="D105" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="n">
+      <c r="B106" s="3" t="n">
         <v>2443964</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="4" t="n">
         <v>111237</v>
       </c>
-      <c r="D106" s="4" t="n">
+      <c r="D106" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="n">
+      <c r="B107" s="3" t="n">
         <v>6417989</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="4" t="n">
         <v>111198</v>
       </c>
-      <c r="D107" s="4" t="n">
+      <c r="D107" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E107" s="4" t="n">
+      <c r="E107" s="5" t="n">
         <v>44918</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="n">
+      <c r="B108" s="3" t="n">
         <v>6417989</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="4" t="n">
         <v>111204</v>
       </c>
-      <c r="D108" s="4" t="n">
+      <c r="D108" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E108" s="4"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="n">
+      <c r="B109" s="3" t="n">
         <v>6989121</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="4" t="n">
         <v>111288</v>
       </c>
-      <c r="D109" s="4" t="n">
+      <c r="D109" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E109" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="n">
+      <c r="B110" s="3" t="n">
         <v>6398858</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="4" t="n">
         <v>111199</v>
       </c>
-      <c r="D110" s="4" t="n">
+      <c r="D110" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E110" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="n">
+      <c r="B111" s="3" t="n">
         <v>1901275</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="4" t="n">
         <v>111197</v>
       </c>
-      <c r="D111" s="4" t="n">
+      <c r="D111" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E111" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="n">
+      <c r="B112" s="3" t="n">
         <v>1991072</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="4" t="n">
         <v>111283</v>
       </c>
-      <c r="D112" s="4" t="n">
+      <c r="D112" s="5" t="n">
         <v>44864</v>
       </c>
-      <c r="E112" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="n">
+      <c r="B113" s="3" t="n">
         <v>1991072</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="4" t="n">
         <v>111147</v>
       </c>
-      <c r="D113" s="4" t="n">
+      <c r="D113" s="5" t="n">
         <v>44864</v>
       </c>
-      <c r="E113" s="4"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="n">
+      <c r="B114" s="3" t="n">
         <v>1991072</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="4" t="n">
         <v>111210</v>
       </c>
-      <c r="D114" s="4" t="n">
+      <c r="D114" s="5" t="n">
         <v>44864</v>
       </c>
-      <c r="E114" s="4"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="n">
+      <c r="B115" s="3" t="n">
         <v>7429651</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="4" t="n">
         <v>111231</v>
       </c>
-      <c r="D115" s="4" t="n">
+      <c r="D115" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E115" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="n">
+      <c r="B116" s="3" t="n">
         <v>7429651</v>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="C116" s="4" t="n">
         <v>111203</v>
       </c>
-      <c r="D116" s="4" t="n">
+      <c r="D116" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E116" s="4"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="n">
+      <c r="B117" s="3" t="n">
         <v>7429651</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="4" t="n">
         <v>111222</v>
       </c>
-      <c r="D117" s="4" t="n">
+      <c r="D117" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E117" s="4"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="n">
+      <c r="B118" s="3" t="n">
         <v>1129728</v>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="C118" s="4" t="n">
         <v>111209</v>
       </c>
-      <c r="D118" s="4" t="n">
+      <c r="D118" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E118" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="n">
+      <c r="B119" s="3" t="n">
         <v>7354902</v>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="C119" s="4" t="n">
         <v>111123</v>
       </c>
-      <c r="D119" s="4" t="n">
+      <c r="D119" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E119" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="n">
+      <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="n">
+      <c r="B120" s="3" t="n">
         <v>7354902</v>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="C120" s="4" t="n">
         <v>111304</v>
       </c>
-      <c r="D120" s="4" t="n">
+      <c r="D120" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E120" s="4"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="n">
+      <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="n">
+      <c r="B121" s="3" t="n">
         <v>8642671</v>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="C121" s="4" t="n">
         <v>111299</v>
       </c>
-      <c r="D121" s="4" t="n">
+      <c r="D121" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E121" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="n">
+      <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="n">
+      <c r="B122" s="3" t="n">
         <v>8642671</v>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="C122" s="4" t="n">
         <v>111180</v>
       </c>
-      <c r="D122" s="4" t="n">
+      <c r="D122" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E122" s="4"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="n">
+      <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="n">
+      <c r="B123" s="3" t="n">
         <v>8642671</v>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="C123" s="4" t="n">
         <v>111232</v>
       </c>
-      <c r="D123" s="4" t="n">
+      <c r="D123" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E123" s="4"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="n">
+      <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="n">
+      <c r="B124" s="3" t="n">
         <v>6963715</v>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="C124" s="4" t="n">
         <v>111154</v>
       </c>
-      <c r="D124" s="4" t="n">
+      <c r="D124" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E124" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="n">
+      <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="n">
+      <c r="B125" s="3" t="n">
         <v>6963715</v>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="C125" s="4" t="n">
         <v>111242</v>
       </c>
-      <c r="D125" s="4" t="n">
+      <c r="D125" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="n">
+      <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="n">
+      <c r="B126" s="3" t="n">
         <v>1690307</v>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="C126" s="4" t="n">
         <v>111114</v>
       </c>
-      <c r="D126" s="4" t="n">
+      <c r="D126" s="5" t="n">
         <v>44865</v>
       </c>
-      <c r="E126" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="n">
+      <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="n">
+      <c r="B127" s="3" t="n">
         <v>8089838</v>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="C127" s="4" t="n">
         <v>111290</v>
       </c>
-      <c r="D127" s="4" t="n">
+      <c r="D127" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E127" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="n">
+      <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="n">
+      <c r="B128" s="3" t="n">
         <v>2373310</v>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="C128" s="4" t="n">
         <v>111293</v>
       </c>
-      <c r="D128" s="4" t="n">
+      <c r="D128" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E128" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="n">
+      <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="n">
+      <c r="B129" s="3" t="n">
         <v>2373310</v>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="C129" s="4" t="n">
         <v>111167</v>
       </c>
-      <c r="D129" s="4" t="n">
+      <c r="D129" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E129" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="n">
+      <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="n">
+      <c r="B130" s="3" t="n">
         <v>2373310</v>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="C130" s="4" t="n">
         <v>111139</v>
       </c>
-      <c r="D130" s="4" t="n">
+      <c r="D130" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E130" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="n">
+      <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="n">
+      <c r="B131" s="3" t="n">
         <v>3367829</v>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="C131" s="4" t="n">
         <v>111170</v>
       </c>
-      <c r="D131" s="4" t="n">
+      <c r="D131" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E131" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="n">
+      <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="n">
+      <c r="B132" s="3" t="n">
         <v>3367829</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C132" s="4" t="n">
         <v>111134</v>
       </c>
-      <c r="D132" s="4" t="n">
+      <c r="D132" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E132" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="n">
+      <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="n">
+      <c r="B133" s="3" t="n">
         <v>2926293</v>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="C133" s="4" t="n">
         <v>111127</v>
       </c>
-      <c r="D133" s="4" t="n">
+      <c r="D133" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E133" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="n">
+      <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="n">
+      <c r="B134" s="3" t="n">
         <v>1707190</v>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="C134" s="4" t="n">
         <v>111248</v>
       </c>
-      <c r="D134" s="4" t="n">
+      <c r="D134" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E134" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="n">
+      <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="n">
+      <c r="B135" s="3" t="n">
         <v>1707190</v>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="C135" s="4" t="n">
         <v>111294</v>
       </c>
-      <c r="D135" s="4" t="n">
+      <c r="D135" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E135" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="n">
+      <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="n">
+      <c r="B136" s="3" t="n">
         <v>1707190</v>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="C136" s="4" t="n">
         <v>111169</v>
       </c>
-      <c r="D136" s="4" t="n">
+      <c r="D136" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E136" s="4"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="n">
+      <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="n">
+      <c r="B137" s="3" t="n">
         <v>1707190</v>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="C137" s="4" t="n">
         <v>111117</v>
       </c>
-      <c r="D137" s="4" t="n">
+      <c r="D137" s="5" t="n">
         <v>44871</v>
       </c>
-      <c r="E137" s="4"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="n">
+      <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="n">
+      <c r="B138" s="3" t="n">
         <v>3436976</v>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="C138" s="4" t="n">
         <v>111146</v>
       </c>
-      <c r="D138" s="4" t="n">
+      <c r="D138" s="5" t="n">
         <v>44875</v>
       </c>
-      <c r="E138" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="n">
+      <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="n">
+      <c r="B139" s="3" t="n">
         <v>3436976</v>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="C139" s="4" t="n">
         <v>111136</v>
       </c>
-      <c r="D139" s="4" t="n">
+      <c r="D139" s="5" t="n">
         <v>44875</v>
       </c>
-      <c r="E139" s="4"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="n">
+      <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="n">
+      <c r="B140" s="3" t="n">
         <v>8057773</v>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="C140" s="4" t="n">
         <v>111163</v>
       </c>
-      <c r="D140" s="4" t="n">
+      <c r="D140" s="5" t="n">
         <v>44875</v>
       </c>
-      <c r="E140" s="4" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="n">
+      <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="n">
+      <c r="B141" s="3" t="n">
         <v>8057773</v>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="C141" s="4" t="n">
         <v>111158</v>
       </c>
-      <c r="D141" s="4" t="n">
+      <c r="D141" s="5" t="n">
         <v>44875</v>
       </c>
-      <c r="E141" s="4"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="n">
+      <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="n">
+      <c r="B142" s="3" t="n">
         <v>5219831</v>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="C142" s="4" t="n">
         <v>111298</v>
       </c>
-      <c r="D142" s="4" t="n">
+      <c r="D142" s="5" t="n">
         <v>44877</v>
       </c>
-      <c r="E142" s="4" t="n">
-        <v>44924</v>
-      </c>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="n">
+      <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="n">
+      <c r="B143" s="3" t="n">
         <v>2748371</v>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="C143" s="4" t="n">
         <v>111205</v>
       </c>
-      <c r="D143" s="4" t="n">
+      <c r="D143" s="5" t="n">
         <v>44883</v>
       </c>
-      <c r="E143" s="4" t="n">
-        <v>44924</v>
-      </c>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="n">
+      <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="n">
+      <c r="B144" s="3" t="n">
         <v>2748371</v>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="C144" s="4" t="n">
         <v>111212</v>
       </c>
-      <c r="D144" s="4" t="n">
+      <c r="D144" s="5" t="n">
         <v>44883</v>
       </c>
-      <c r="E144" s="4"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="n">
+      <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="n">
+      <c r="B145" s="3" t="n">
         <v>2748371</v>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="C145" s="4" t="n">
         <v>111201</v>
       </c>
-      <c r="D145" s="4" t="n">
+      <c r="D145" s="5" t="n">
         <v>44883</v>
       </c>
-      <c r="E145" s="4"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="n">
+      <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="n">
+      <c r="B146" s="3" t="n">
         <v>2748371</v>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="C146" s="4" t="n">
         <v>111213</v>
       </c>
-      <c r="D146" s="4" t="n">
+      <c r="D146" s="5" t="n">
         <v>44883</v>
       </c>
-      <c r="E146" s="4"/>
+      <c r="E146" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datadases/ZAPISI.xlsx
+++ b/datadases/ZAPISI.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Дата выдачи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата возврата</t>
   </si>
 </sst>
 </file>
@@ -183,11 +180,11 @@
   </sheetPr>
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A108" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I123" activeCellId="0" sqref="I123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
@@ -197,7 +194,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="34.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -210,11 +207,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -227,11 +222,9 @@
       <c r="D2" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -246,7 +239,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -274,11 +267,9 @@
       <c r="D5" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -291,11 +282,9 @@
       <c r="D6" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -308,11 +297,9 @@
       <c r="D7" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -325,9 +312,7 @@
       <c r="D8" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E8" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -342,9 +327,7 @@
       <c r="D9" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -374,11 +357,9 @@
       <c r="D11" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -393,7 +374,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -406,11 +387,9 @@
       <c r="D13" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E13" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
@@ -425,7 +404,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -438,11 +417,9 @@
       <c r="D15" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E15" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -455,11 +432,9 @@
       <c r="D16" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -474,7 +449,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -487,11 +462,9 @@
       <c r="D18" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E18" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -504,11 +477,9 @@
       <c r="D19" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -521,11 +492,9 @@
       <c r="D20" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E20" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -538,11 +507,9 @@
       <c r="D21" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E21" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -555,11 +522,9 @@
       <c r="D22" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E22" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -572,11 +537,9 @@
       <c r="D23" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E23" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -591,7 +554,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -606,7 +569,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -619,11 +582,9 @@
       <c r="D26" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -636,11 +597,9 @@
       <c r="D27" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E27" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -655,7 +614,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -668,11 +627,9 @@
       <c r="D29" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E29" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -685,11 +642,9 @@
       <c r="D30" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E30" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -704,7 +659,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
@@ -717,11 +672,9 @@
       <c r="D32" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E32" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
@@ -736,7 +689,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
@@ -749,11 +702,9 @@
       <c r="D34" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E34" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -766,11 +717,9 @@
       <c r="D35" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E35" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -783,11 +732,9 @@
       <c r="D36" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -800,11 +747,9 @@
       <c r="D37" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E37" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -817,12 +762,10 @@
       <c r="D38" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E38" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -835,12 +778,10 @@
       <c r="D39" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="E39" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -853,12 +794,10 @@
       <c r="D40" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E40" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -874,7 +813,7 @@
       <c r="E41" s="5"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -887,12 +826,10 @@
       <c r="D42" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E42" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E42" s="5"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>42</v>
       </c>
@@ -905,12 +842,10 @@
       <c r="D43" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E43" s="5" t="n">
-        <v>44918</v>
-      </c>
+      <c r="E43" s="5"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -926,7 +861,7 @@
       <c r="E44" s="5"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -939,11 +874,9 @@
       <c r="D45" s="5" t="n">
         <v>44807</v>
       </c>
-      <c r="E45" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45</v>
       </c>
@@ -958,7 +891,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -973,7 +906,7 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -986,11 +919,9 @@
       <c r="D48" s="5" t="n">
         <v>44810</v>
       </c>
-      <c r="E48" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -1005,7 +936,7 @@
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -1020,7 +951,7 @@
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -1033,11 +964,9 @@
       <c r="D51" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E51" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -1052,7 +981,7 @@
       </c>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -1067,7 +996,7 @@
       </c>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -1080,11 +1009,9 @@
       <c r="D54" s="5" t="n">
         <v>44814</v>
       </c>
-      <c r="E54" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -1097,11 +1024,9 @@
       <c r="D55" s="5" t="n">
         <v>44817</v>
       </c>
-      <c r="E55" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -1116,7 +1041,7 @@
       </c>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -1129,11 +1054,9 @@
       <c r="D57" s="5" t="n">
         <v>44818</v>
       </c>
-      <c r="E57" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -1148,7 +1071,7 @@
       </c>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -1163,7 +1086,7 @@
       </c>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -1178,7 +1101,7 @@
       </c>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>60</v>
       </c>
@@ -1191,11 +1114,9 @@
       <c r="D61" s="5" t="n">
         <v>44819</v>
       </c>
-      <c r="E61" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>61</v>
       </c>
@@ -1208,11 +1129,9 @@
       <c r="D62" s="5" t="n">
         <v>44820</v>
       </c>
-      <c r="E62" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -1225,11 +1144,9 @@
       <c r="D63" s="5" t="n">
         <v>44820</v>
       </c>
-      <c r="E63" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -1242,11 +1159,9 @@
       <c r="D64" s="5" t="n">
         <v>44822</v>
       </c>
-      <c r="E64" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -1261,7 +1176,7 @@
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -1276,7 +1191,7 @@
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -1289,11 +1204,9 @@
       <c r="D67" s="5" t="n">
         <v>44823</v>
       </c>
-      <c r="E67" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -1308,7 +1221,7 @@
       </c>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>68</v>
       </c>
@@ -1323,7 +1236,7 @@
       </c>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -1336,11 +1249,9 @@
       <c r="D70" s="5" t="n">
         <v>44824</v>
       </c>
-      <c r="E70" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -1353,11 +1264,9 @@
       <c r="D71" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E71" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
@@ -1370,11 +1279,9 @@
       <c r="D72" s="5" t="n">
         <v>44833</v>
       </c>
-      <c r="E72" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -1389,7 +1296,7 @@
       </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
@@ -1404,7 +1311,7 @@
       </c>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -1417,11 +1324,9 @@
       <c r="D75" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E75" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -1436,7 +1341,7 @@
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -1449,11 +1354,9 @@
       <c r="D77" s="5" t="n">
         <v>44834</v>
       </c>
-      <c r="E77" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -1468,7 +1371,7 @@
       </c>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -1481,11 +1384,9 @@
       <c r="D79" s="5" t="n">
         <v>44838</v>
       </c>
-      <c r="E79" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -1500,7 +1401,7 @@
       </c>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -1515,7 +1416,7 @@
       </c>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -1530,7 +1431,7 @@
       </c>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -1545,7 +1446,7 @@
       </c>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -1560,7 +1461,7 @@
       </c>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -1573,11 +1474,9 @@
       <c r="D85" s="5" t="n">
         <v>44844</v>
       </c>
-      <c r="E85" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -1590,11 +1489,9 @@
       <c r="D86" s="5" t="n">
         <v>44845</v>
       </c>
-      <c r="E86" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -1609,7 +1506,7 @@
       </c>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -1622,11 +1519,9 @@
       <c r="D88" s="5" t="n">
         <v>44847</v>
       </c>
-      <c r="E88" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>88</v>
       </c>
@@ -1641,7 +1536,7 @@
       </c>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>89</v>
       </c>
@@ -1654,11 +1549,9 @@
       <c r="D90" s="5" t="n">
         <v>44849</v>
       </c>
-      <c r="E90" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>90</v>
       </c>
@@ -1673,7 +1566,7 @@
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>91</v>
       </c>
@@ -1688,7 +1581,7 @@
       </c>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>92</v>
       </c>
@@ -1701,11 +1594,9 @@
       <c r="D93" s="5" t="n">
         <v>44852</v>
       </c>
-      <c r="E93" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>93</v>
       </c>
@@ -1720,7 +1611,7 @@
       </c>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>94</v>
       </c>
@@ -1735,7 +1626,7 @@
       </c>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>95</v>
       </c>
@@ -1748,11 +1639,9 @@
       <c r="D96" s="5" t="n">
         <v>44855</v>
       </c>
-      <c r="E96" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>96</v>
       </c>
@@ -1765,11 +1654,9 @@
       <c r="D97" s="5" t="n">
         <v>44856</v>
       </c>
-      <c r="E97" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>97</v>
       </c>
@@ -1782,11 +1669,9 @@
       <c r="D98" s="5" t="n">
         <v>44857</v>
       </c>
-      <c r="E98" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>98</v>
       </c>
@@ -1801,7 +1686,7 @@
       </c>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>99</v>
       </c>
@@ -1816,7 +1701,7 @@
       </c>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>100</v>
       </c>
@@ -1829,11 +1714,9 @@
       <c r="D101" s="5" t="n">
         <v>44860</v>
       </c>
-      <c r="E101" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>101</v>
       </c>
@@ -1848,7 +1731,7 @@
       </c>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>102</v>
       </c>
@@ -1861,11 +1744,9 @@
       <c r="D103" s="5" t="n">
         <v>44862</v>
       </c>
-      <c r="E103" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>103</v>
       </c>
@@ -1878,11 +1759,9 @@
       <c r="D104" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E104" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>104</v>
       </c>
@@ -1897,7 +1776,7 @@
       </c>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>105</v>
       </c>
@@ -1912,7 +1791,7 @@
       </c>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>106</v>
       </c>
@@ -1925,11 +1804,9 @@
       <c r="D107" s="5" t="n">
         <v>44863</v>
       </c>
-      <c r="E107" s="5" t="n">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>107</v>
       </c>
@@ -1944,7 +1821,7 @@
       </c>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>108</v>
       </c>
@@ -1959,7 +1836,7 @@
       </c>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>109</v>
       </c>
@@ -1974,7 +1851,7 @@
       </c>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>110</v>
       </c>
@@ -1989,7 +1866,7 @@
       </c>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>111</v>
       </c>
@@ -2004,7 +1881,7 @@
       </c>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>112</v>
       </c>
@@ -2019,7 +1896,7 @@
       </c>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>113</v>
       </c>
@@ -2034,7 +1911,7 @@
       </c>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>114</v>
       </c>
@@ -2049,7 +1926,7 @@
       </c>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>115</v>
       </c>
@@ -2064,7 +1941,7 @@
       </c>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>116</v>
       </c>
@@ -2079,7 +1956,7 @@
       </c>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>117</v>
       </c>
@@ -2094,7 +1971,7 @@
       </c>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>118</v>
       </c>
@@ -2109,7 +1986,7 @@
       </c>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>119</v>
       </c>
@@ -2124,7 +2001,7 @@
       </c>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>120</v>
       </c>
@@ -2139,7 +2016,7 @@
       </c>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>121</v>
       </c>
@@ -2154,7 +2031,7 @@
       </c>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>122</v>
       </c>
@@ -2169,7 +2046,7 @@
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>123</v>
       </c>
@@ -2184,7 +2061,7 @@
       </c>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>124</v>
       </c>
@@ -2199,7 +2076,7 @@
       </c>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>125</v>
       </c>
@@ -2214,7 +2091,7 @@
       </c>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>126</v>
       </c>
@@ -2229,7 +2106,7 @@
       </c>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>127</v>
       </c>
@@ -2244,7 +2121,7 @@
       </c>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>128</v>
       </c>
@@ -2259,7 +2136,7 @@
       </c>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>129</v>
       </c>
@@ -2274,7 +2151,7 @@
       </c>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>130</v>
       </c>
@@ -2289,7 +2166,7 @@
       </c>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>131</v>
       </c>
@@ -2304,7 +2181,7 @@
       </c>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>132</v>
       </c>
@@ -2319,7 +2196,7 @@
       </c>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>133</v>
       </c>
@@ -2334,7 +2211,7 @@
       </c>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>134</v>
       </c>
@@ -2349,7 +2226,7 @@
       </c>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>135</v>
       </c>
@@ -2364,7 +2241,7 @@
       </c>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>136</v>
       </c>
@@ -2379,7 +2256,7 @@
       </c>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>137</v>
       </c>
@@ -2394,7 +2271,7 @@
       </c>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>138</v>
       </c>
@@ -2409,7 +2286,7 @@
       </c>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>139</v>
       </c>
@@ -2424,7 +2301,7 @@
       </c>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>140</v>
       </c>
@@ -2439,7 +2316,7 @@
       </c>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>141</v>
       </c>
@@ -2454,7 +2331,7 @@
       </c>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>142</v>
       </c>
@@ -2469,7 +2346,7 @@
       </c>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>143</v>
       </c>
@@ -2484,7 +2361,7 @@
       </c>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>144</v>
       </c>
@@ -2499,7 +2376,7 @@
       </c>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>145</v>
       </c>
